--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-D.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-D.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-D.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-D.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,42 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +491,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +532,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1106,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1125,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'D': 112.5 ton, 2.53 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'D': 75.0-150.0 ton, 4.88 COP, 6.28 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1144,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>40edea78-3bde-417d-b3d4-f4fda4cf54c2</t>
+          <t>a634760c-ef53-4c34-86cc-a5d0c2a633d7</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1163,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1181,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1486,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>187290.0926009779</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1525,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1544,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1560,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1812,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1975,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2130,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2174,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2231,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2253,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2262,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35397.35137479877</v>
+        <v>18349.9843800655</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>100489.3948622223</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>135886.7462370211</v>
+        <v>118839.3792422878</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4476863492906</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.1919523490188</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2290,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2299,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54421.94353965297</v>
+        <v>28212.33157564506</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>200978.7897244446</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>255400.7332640975</v>
+        <v>229191.1213000896</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8564838096922</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.3038087109609</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2327,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2336,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81725.67015023189</v>
+        <v>42366.58146617236</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>301468.1845866669</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>383193.8547368988</v>
+        <v>343834.7660528392</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2652812700939</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.4926870896045</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2364,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2373,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>117308.5312065355</v>
+        <v>60812.73405164739</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>401957.5794488891</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>519266.1106554247</v>
+        <v>462770.3135005365</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.6740787304956</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.7585874849495</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2401,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2410,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40346.69511768501</v>
+        <v>20915.72381666632</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>95153.51087710912</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>135500.2059947941</v>
+        <v>116069.2346937754</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3728806464845</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.2669404158915</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2438,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2447,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62031.35202001333</v>
+        <v>32157.04837882266</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>190307.0217542182</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>252338.3737742316</v>
+        <v>222464.0701330409</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7068724040801</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.3577921147206</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2475,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2484,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93152.75207815292</v>
+        <v>48290.37990710224</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>285460.5326313273</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>378613.2847094802</v>
+        <v>333750.9125384296</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0408641616757</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5367493316228</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2512,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2521,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133710.8952921038</v>
+        <v>69315.71840150502</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>380614.0435084365</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>514324.9388005403</v>
+        <v>449929.7619099415</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3748559192713</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8038120665983</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2549,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2558,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46276.64177620755</v>
+        <v>23989.80773346415</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>87602.38919899182</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>133879.0309751994</v>
+        <v>111592.196932456</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.267018718886</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.3299079282986</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2586,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2595,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71148.39636681235</v>
+        <v>36883.3235055892</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>175204.7783979836</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>246353.174764796</v>
+        <v>212088.1019035729</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.4951485488832</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.383400405926</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2623,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2632,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>106843.8573671186</v>
+        <v>55387.84789385158</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>262807.1675969755</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>369651.024964094</v>
+        <v>318195.015490827</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7232783788804</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.5382734577768</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2660,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2669,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>153363.0247771262</v>
+        <v>79503.38089825127</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>350409.5567959673</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>503772.5815730935</v>
+        <v>429912.9376942185</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.9514082088775</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.794527083851</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2697,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2706,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51758.79976263733</v>
+        <v>26831.75803519374</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>77836.0298278704</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>129594.8295905077</v>
+        <v>104667.7878630641</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.1301005664952</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.3677764978329</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2734,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2743,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79576.98440589794</v>
+        <v>41252.70293247313</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>155672.0596557408</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>235249.0440616387</v>
+        <v>196924.7625882139</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.2213122441016</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.3605878598794</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2771,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2780,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>119501.1048138696</v>
+        <v>61949.36405033618</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>233508.0894836112</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>353009.1942974808</v>
+        <v>295457.4535339474</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.312523921708</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.4671562607301</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2808,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2817,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171531.1609865522</v>
+        <v>88921.74138878286</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>311344.1193114816</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>482875.2802980338</v>
+        <v>400265.8607002645</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.4037355993143</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.6874817003848</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2845,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2854,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36106.22944360348</v>
+        <v>18717.46671941359</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>113195.1326512038</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>149301.3620948073</v>
+        <v>131912.5993706174</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.518164865047</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.3167505116063</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2882,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2891,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55511.81384741995</v>
+        <v>28777.32026398121</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>226390.2653024076</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>281902.0791498276</v>
+        <v>255167.5855663888</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.1085519523161</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.5503546655897</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2919,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2928,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>83362.33314838809</v>
+        <v>43215.02744546616</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>339585.3979536114</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>422947.7311019995</v>
+        <v>382800.4253990776</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.6989390395853</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.8625233024854</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2956,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2965,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>119657.7873465079</v>
+        <v>62030.58826386841</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>452780.5306048152</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>572438.3179513231</v>
+        <v>514811.1188686836</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.2893261268545</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.2532564222937</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2993,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +3002,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41469.69541421648</v>
+        <v>21497.88708877014</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>107998.8644870783</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>149468.5599012948</v>
+        <v>129496.7515758484</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4451575051309</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.3973550130933</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3030,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3039,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63757.91788890376</v>
+        <v>33052.09999977107</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>215997.7289741566</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>279755.6468630604</v>
+        <v>249049.8289739277</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.962537232484</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.6137716417418</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3067,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3076,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>95745.54357944829</v>
+        <v>49634.48283293329</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>323996.5934612349</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>419742.1370406832</v>
+        <v>373631.0762941682</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4799169598371</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9207460964564</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3104,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3113,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>137432.57248585</v>
+        <v>71245.03558825677</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>431995.4579483132</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>569428.0304341632</v>
+        <v>503240.4935365699</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.9972966871902</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.3182783772369</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3141,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3150,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48429.3602146277</v>
+        <v>25105.77681548457</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>100587.3586299486</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>149016.7188445763</v>
+        <v>125693.1354454332</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3410261442117</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.4716955406488</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3178,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3187,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>74458.11070311944</v>
+        <v>38599.07917698537</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>201174.7172598973</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>275632.8279630167</v>
+        <v>239773.7964368826</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7542745106456</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.6576491652637</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3215,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3224,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>111814.0698319388</v>
+        <v>57964.40567438627</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>301762.0758898459</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>413576.1457217847</v>
+        <v>359726.4815642321</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1675228770795</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9496994330096</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3252,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3261,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>160497.2376010859</v>
+        <v>83201.75630768729</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>402349.4345197945</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>562846.6721208803</v>
+        <v>485551.1908274818</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5807712435134</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3478463438864</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3289,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3298,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>55615.34482495669</v>
+        <v>28830.99071521177</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>90960.61507981489</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>146575.9599047716</v>
+        <v>119791.6057950267</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2057707822894</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.5273447573745</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3326,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3335,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>85506.26073556978</v>
+        <v>44326.43935084347</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>181921.2301596298</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>267427.4908951996</v>
+        <v>226247.6695104733</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.483763786801</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.6629622402039</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3363,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3372,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>128405.1249577894</v>
+        <v>66565.20744581244</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>272881.8452394446</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>401286.9701972341</v>
+        <v>339447.052685257</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.7617567913125</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.9208127919677</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3400,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3409,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>184311.9374916155</v>
+        <v>95547.29500011867</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>363842.4603192596</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>548154.3978108751</v>
+        <v>459389.7553193782</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.0397497958241</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.3008964126661</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3437,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3446,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>36646.8656628859</v>
+        <v>18997.73249619691</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>119408.7347642592</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>156055.6004271451</v>
+        <v>138406.4672604561</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4974908290552</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.3795861934096</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3474,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3483,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>56343.01936587087</v>
+        <v>29208.21714433531</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>238817.4695285185</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>295160.4888943894</v>
+        <v>268025.6866728538</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.1783149914438</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.6736996195187</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3511,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3520,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>84610.55810342808</v>
+        <v>43862.10717143963</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>358226.2042927777</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>442836.7623962058</v>
+        <v>402088.3114642173</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.8591391538323</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>290.0475539129388</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3548,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3557,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>121449.4818755575</v>
+        <v>62959.40257750986</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>477634.9390570369</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>599084.4209325945</v>
+        <v>540594.3416345468</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.5399633162208</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.50114907367</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3585,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3594,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>41756.14075033257</v>
+        <v>21646.38033019427</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>114352.0824211214</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>156108.2231714539</v>
+        <v>135998.4627513156</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.4263122552605</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.4593457828526</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3622,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3631,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>64198.31558262514</v>
+        <v>33280.40213218873</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>228704.1648422427</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>292902.4804248679</v>
+        <v>261984.5669744315</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>288.0359578438544</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.7365161694735</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3659,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3668,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>96406.89071832383</v>
+        <v>49977.32514166058</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>343056.2472633641</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>439463.1379816879</v>
+        <v>393033.5724050247</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.6456034324484</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.1048698959644</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3696,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3705,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>138381.8661574286</v>
+        <v>71737.14935860976</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>457408.3296844854</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>595790.195841914</v>
+        <v>529145.4790430953</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.2552490210422</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.5644069623252</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3733,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3742,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>48815.63784285101</v>
+        <v>25306.02310988141</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>107080.1923849794</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>155895.8302278304</v>
+        <v>132386.2154948608</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3239514982932</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.5361289459706</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3770,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3779,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>75051.99636002106</v>
+        <v>38906.94945836039</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>214160.3847699588</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>289212.3811299799</v>
+        <v>253067.3342283191</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8312363299198</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.7848424616866</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3807,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3816,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>112705.9105150547</v>
+        <v>58426.73581969579</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>321240.5771549381</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>433946.4876699928</v>
+        <v>379667.3129746339</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3385211615463</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.1404988584249</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3844,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3853,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>161777.3803079518</v>
+        <v>83865.38219388761</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>428320.7695399175</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>590098.1498478693</v>
+        <v>512186.1517338051</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8458059931729</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.6030981361856</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3881,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3890,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>56513.9904884093</v>
+        <v>29296.8485618333</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>97593.06465583328</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>154107.0551442426</v>
+        <v>126889.9132176666</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.1904085581533</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.5981129416805</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3918,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3927,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>86887.8907632162</v>
+        <v>45042.67625676042</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>195186.1293116666</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>282074.0200748828</v>
+        <v>240228.805568427</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5641504496398</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.8005927233504</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3955,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3964,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>130479.924800739</v>
+        <v>67640.78353360399</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>292779.1939674998</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>423259.1187682389</v>
+        <v>360419.9775011038</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9378923411264</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.1272806442826</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3992,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +4001,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>187290.0926009779</v>
+        <v>97091.17039236394</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>390372.2586233331</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>577662.351224311</v>
+        <v>487463.4290156971</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.311634232613</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.578176704477</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4029,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4038,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>37649.64299604672</v>
+        <v>19517.57219282702</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>119130.2012013888</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>156779.8441974356</v>
+        <v>138647.7733942159</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3852370230061</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.3863239407112</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4066,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4075,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>57884.74746948756</v>
+        <v>30007.44888119955</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>238260.4024027777</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>296145.1498722652</v>
+        <v>268267.8512839773</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>292.0649184904566</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.6828600667587</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4103,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4112,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>86925.77792584612</v>
+        <v>45062.3169591142</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>357390.6036041665</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>444316.3815300126</v>
+        <v>402452.9205632808</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.7445999579072</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>290.0613190293749</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4140,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4149,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>124772.7343651224</v>
+        <v>64682.17642657096</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>476520.8048055554</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>601293.5391706778</v>
+        <v>541202.9812321264</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.4242814253577</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.5217008285599</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4177,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4186,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>41976.91567611247</v>
+        <v>21760.83003567296</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>114213.1646792386</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>156190.0803553511</v>
+        <v>135973.9947149116</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3159090521159</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.460110036947</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4214,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4223,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>64537.74777399297</v>
+        <v>33456.36375552436</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>228426.3293584772</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>292964.0771324702</v>
+        <v>261882.6931140016</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.9262625486762</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.737091262993</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4251,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4260,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>96916.61752162856</v>
+        <v>50241.56747944751</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>342639.4940377158</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>439556.1115593444</v>
+        <v>392881.0615171634</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.5366160452365</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.1057379375218</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4288,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4297,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>139113.5249190192</v>
+        <v>72116.44120744239</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>456852.6587169545</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>595966.1836359737</v>
+        <v>528969.0999243968</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.1469695417969</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.5660500605334</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4325,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4334,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>48346.86079763515</v>
+        <v>25063.00912371158</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>107080.8904640843</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>155427.7512617194</v>
+        <v>132143.8995877959</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2153472407603</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.531744670144</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4362,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4371,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>74331.27130866634</v>
+        <v>38533.3256441194</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>214161.7809281686</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>288493.0522368349</v>
+        <v>252695.106572288</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.725138925965</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.7781048458014</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4399,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4408,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>111623.5945596697</v>
+        <v>57865.66330708546</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>321242.6713922529</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>432866.2659519226</v>
+        <v>379108.3346993384</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.2349306111697</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.1303809289541</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4436,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4445,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>160223.8305506453</v>
+        <v>83060.02211260975</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>428323.5618563372</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>588547.3924069826</v>
+        <v>511383.583968947</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.7447222963744</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.588572919602</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4473,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4482,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>55506.62447643141</v>
+        <v>28774.63009443791</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>97733.37855592584</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>153240.0030323573</v>
+        <v>126508.0086503637</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.0835515889393</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.5899654277127</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4510,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4519,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>85339.10775832001</v>
+        <v>44239.78725958564</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>195466.7571118517</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>280805.8648701717</v>
+        <v>239706.5443714373</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.4615476223229</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.7886761244492</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4547,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4556,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>128154.1106022769</v>
+        <v>66435.08162215815</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>293200.1356677775</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>421354.2462700544</v>
+        <v>359635.2172899357</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.8395436557067</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.1093809412853</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4584,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.02566245673489714</v>
+        <v>0.02216342728947357</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4593,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>183951.6330083021</v>
+        <v>95360.5131821554</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>390933.5142237034</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>574885.1472320054</v>
+        <v>486294.0274058587</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.2175396890904</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5520798782209</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4793,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.01695230480062351</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.01695230480062351</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.01695230480062351</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.01695230480062351</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.02216342728947357</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.02216342728947357</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.02216342728947357</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.02216342728947357</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>